--- a/sens_spec_summary.xlsx
+++ b/sens_spec_summary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\RiskEA working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="0" windowWidth="22380" windowHeight="11820"/>
+    <workbookView xWindow="7095" yWindow="0" windowWidth="22380" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Prevalence disease</t>
   </si>
@@ -55,11 +55,14 @@
   <si>
     <t>NNT</t>
   </si>
+  <si>
+    <t>Specificity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -101,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -109,6 +112,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,7 +146,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -176,7 +179,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -187,121 +190,75 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>False Pos</c:v>
+                  <c:v>Specificity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$15</c:f>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.628</c:v>
+                  <c:v>0.80400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42099999999999999</c:v>
+                  <c:v>0.627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40600000000000003</c:v>
+                  <c:v>0.35799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39200000000000002</c:v>
+                  <c:v>0.217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.107</c:v>
+                  <c:v>0.17100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$15</c:f>
+              <c:f>Sheet1!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.372</c:v>
+                  <c:v>0.52600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16900000000000001</c:v>
+                  <c:v>0.70300000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.159</c:v>
+                  <c:v>0.90800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.152</c:v>
+                  <c:v>0.95599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5999999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.6000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>0.96699999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FF6-402D-92D1-C53682DFA512}"/>
+              <c16:uniqueId val="{00000000-0EEA-4995-8116-3BC12ED4381B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -313,13 +270,109 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="358695256"/>
-        <c:axId val="358695584"/>
+        <c:axId val="549778224"/>
+        <c:axId val="549786096"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>368.88059701492529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>296.57894736842104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161.35754189944134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.52534562211983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.42105263157896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EEA-4995-8116-3BC12ED4381B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="559559000"/>
+        <c:axId val="559560968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="358695256"/>
+        <c:axId val="549778224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -374,14 +427,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358695584"/>
+        <c:crossAx val="549786096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358695584"/>
+        <c:axId val="549786096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -436,8 +491,70 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358695256"/>
+        <c:crossAx val="549778224"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="559560968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559559000"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="559559000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="559560968"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -448,6 +565,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1045,20 +1193,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE4F9E3-757D-415A-A647-70FB0FFB2676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1338,50 +1492,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D15"/>
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>100000</v>
       </c>
-      <c r="E2">
-        <f>D2*(C2)</f>
+      <c r="G2">
+        <f>F2*(C2)</f>
         <v>160</v>
       </c>
-      <c r="F2">
-        <f>D2-E2</f>
+      <c r="H2">
+        <f>F2-G2</f>
         <v>99840</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1389,290 +1544,201 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <f>1-F5</f>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <f>1/G5</f>
+        <v>368.88059701492529</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <f>(C5*$G$2)/(C5*$G$2+F5*$H$2)</f>
+        <v>2.7109043091240142E-3</v>
+      </c>
+      <c r="H5" s="5">
+        <f>(1-F5)*$H$2/((1-F5)*$H$2 + (1-C5)*$G$2)</f>
+        <v>0.99940320321539489</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" ref="I5" si="0">1/G5</f>
+        <v>368.88059701492529</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>1.3</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.628</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.372</v>
-      </c>
-      <c r="E5" s="4">
-        <f>(C5*$E$2)/(C5*$E$2+D5*$F$2)</f>
-        <v>2.6981044527316154E-3</v>
-      </c>
-      <c r="F5" s="5">
-        <f>(1-D5)*$F$2/((1-D5)*$F$2 + (1-C5)*$E$2)</f>
-        <v>0.99905161073209536</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G9" si="0">1/E5</f>
-        <v>370.6305732484077</v>
+      <c r="C6" s="1">
+        <v>0.627</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D9" si="1">1-F6</f>
+        <v>0.70300000000000007</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" ref="E6:E9" si="2">1/G6</f>
+        <v>296.57894736842104</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <f>(C6*$G$2)/(C6*$G$2+F6*$H$2)</f>
+        <v>3.3717834960070984E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <f>(1-F6)*$H$2/((1-F6)*$H$2 + (1-C6)*$G$2)</f>
+        <v>0.99915042877153837</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6" si="3">1/G6</f>
+        <v>296.57894736842104</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E15" si="1">(C6*$E$2)/(C6*$E$2+D6*$F$2)</f>
-        <v>3.9763121357801971E-3</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F15" si="2">(1-D6)*$F$2/((1-D6)*$F$2 + (1-C6)*$E$2)</f>
-        <v>0.99888465739333454</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>251.48931116389554</v>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>161.35754189944134</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <f>(C7*$G$2)/(C7*$G$2+F7*$H$2)</f>
+        <v>6.1974171658068754E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <f>(1-F7)*$H$2/((1-F7)*$H$2 + (1-C7)*$G$2)</f>
+        <v>0.99886819196310517</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" ref="I7:I9" si="4">1/G7</f>
+        <v>161.35754189944134</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.159</v>
-      </c>
-      <c r="E7" s="4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>4.0754050310172459E-3</v>
-      </c>
-      <c r="F7" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="2"/>
-        <v>0.99886938547103232</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>245.37438423645315</v>
+        <v>127.52534562211983</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <f>(C8*$G$2)/(C8*$G$2+F8*$H$2)</f>
+        <v>7.8415784338524905E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <f>(1-F8)*$H$2/((1-F8)*$H$2 + (1-C8)*$G$2)</f>
+        <v>0.99868916020872989</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="4"/>
+        <v>127.52534562211983</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.152</v>
-      </c>
-      <c r="E8" s="4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>4.1159176816463671E-3</v>
-      </c>
-      <c r="F8" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="2"/>
-        <v>0.9988523104802175</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>242.9591836734694</v>
+        <v>121.42105263157896</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <f>(C9*$G$2)/(C9*$G$2+F9*$H$2)</f>
+        <v>8.2358040745556995E-3</v>
+      </c>
+      <c r="H9" s="5">
+        <f>(1-F9)*$H$2/((1-F9)*$H$2 + (1-C9)*$G$2)</f>
+        <v>0.9986280217861534</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="4"/>
+        <v>121.42105263157896</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="1"/>
-        <v>4.1493775933609967E-3</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>0.99885124573925155</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>240.99999999999994</v>
-      </c>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.373</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="1"/>
-        <v>4.2819915278559037E-3</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>0.99883433632464558</v>
-      </c>
-      <c r="G10" s="6">
-        <f>1/E10</f>
-        <v>233.53619302949068</v>
-      </c>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="1"/>
-        <v>5.522404655127682E-3</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>0.99877065974593626</v>
-      </c>
-      <c r="G11" s="6">
-        <f>1/E11</f>
-        <v>181.08053691275168</v>
-      </c>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>5.9441723334442906E-3</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.99871342260465024</v>
-      </c>
-      <c r="G12" s="6">
-        <f>1/E12</f>
-        <v>168.23200000000003</v>
-      </c>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
-        <v>6.0585374178684188E-3</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>0.99866574664783681</v>
-      </c>
-      <c r="G13" s="6">
-        <f>1/E13</f>
-        <v>165.05633802816902</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.121</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>6.4221644286396691E-3</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>0.99854988542610112</v>
-      </c>
-      <c r="G14" s="6">
-        <f>1/E14</f>
-        <v>155.71074380165288</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.107</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>7.0940794271696622E-3</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>0.998535866355586</v>
-      </c>
-      <c r="G15" s="6">
-        <f>1/E15</f>
-        <v>140.96261682242988</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>